--- a/schedule/scheduleTemplate.xlsx
+++ b/schedule/scheduleTemplate.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10715"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Matthew/Developer/Websites/IMCA_Radio/imca-raydeeoh/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Matthew/Developer/Websites/IMCA_Radio/imca-raydeeoh/schedule/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E19E9E1-3A77-E548-BB84-E5F5ED57F0AD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CF8E6F1-341B-E14B-9FBE-60DE547EBE46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4400" yWindow="1760" windowWidth="24380" windowHeight="11500" xr2:uid="{C1F8DBFD-48D2-814D-8C9A-C834504E829D}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="83">
   <si>
     <t>Day</t>
   </si>
@@ -277,6 +277,9 @@
   </si>
   <si>
     <t>waaaaaaaaaaawaaaaaaaaaah I</t>
+  </si>
+  <si>
+    <t>ELECTRIC CAFÉ</t>
   </si>
 </sst>
 </file>
@@ -643,8 +646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{509B4220-E834-8A48-82FB-A9FB9AAA8E06}">
   <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -682,7 +685,7 @@
         <v>34</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>82</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>10</v>

--- a/schedule/scheduleTemplate.xlsx
+++ b/schedule/scheduleTemplate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Matthew/Developer/Websites/IMCA_Radio/imca-raydeeoh/schedule/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/SWOON1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CF8E6F1-341B-E14B-9FBE-60DE547EBE46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E61C3F2F-AAA3-1447-8901-7C60B00C4A83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4400" yWindow="1760" windowWidth="24380" windowHeight="11500" xr2:uid="{C1F8DBFD-48D2-814D-8C9A-C834504E829D}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14280" xr2:uid="{C1F8DBFD-48D2-814D-8C9A-C834504E829D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="75">
   <si>
     <t>Day</t>
   </si>
@@ -57,27 +57,9 @@
     <t>Friday</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
     <t>10:00 - 11:00</t>
   </si>
   <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
     <t>11:00 - 12:00</t>
   </si>
   <si>
@@ -93,12 +75,6 @@
     <t>3:00 - 4:00</t>
   </si>
   <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>H</t>
-  </si>
-  <si>
     <t>4:00 - 5:00</t>
   </si>
   <si>
@@ -111,175 +87,181 @@
     <t>Description</t>
   </si>
   <si>
-    <t>blablablablamondayblablablabla A</t>
-  </si>
-  <si>
-    <t>blablablablamondayblablablabla B</t>
-  </si>
-  <si>
-    <t>blablablablamondayblablablabla C</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> blablablablamondayblablablabla D</t>
-  </si>
-  <si>
-    <t>blablablablamondayblablablabla E</t>
-  </si>
-  <si>
-    <t>blablablablamondayblablablabla F</t>
-  </si>
-  <si>
-    <t>blablablablamondayblablablablaG</t>
-  </si>
-  <si>
-    <t>blablablablamondayblablablabla H</t>
-  </si>
-  <si>
-    <t>Artist A</t>
-  </si>
-  <si>
-    <t>Artist B</t>
-  </si>
-  <si>
-    <t>Artist C</t>
-  </si>
-  <si>
-    <t>Artist D</t>
-  </si>
-  <si>
-    <t>Artist E</t>
-  </si>
-  <si>
-    <t>Artist F</t>
-  </si>
-  <si>
-    <t>Artist G</t>
-  </si>
-  <si>
-    <t>Artist H</t>
-  </si>
-  <si>
-    <t>I</t>
-  </si>
-  <si>
-    <t>Artist I</t>
-  </si>
-  <si>
-    <t>blablablablamondayblablablabla I</t>
-  </si>
-  <si>
     <t>6:00 - 7:00</t>
   </si>
   <si>
-    <t>Name A</t>
-  </si>
-  <si>
-    <t>Name B</t>
-  </si>
-  <si>
-    <t>Name C</t>
-  </si>
-  <si>
-    <t>Name D</t>
-  </si>
-  <si>
-    <t>Name E</t>
-  </si>
-  <si>
-    <t>Name F</t>
-  </si>
-  <si>
-    <t>Name G</t>
-  </si>
-  <si>
-    <t>Name H</t>
-  </si>
-  <si>
-    <t>Name I</t>
-  </si>
-  <si>
-    <t>Show A</t>
-  </si>
-  <si>
-    <t>Show B</t>
-  </si>
-  <si>
-    <t>Show C</t>
-  </si>
-  <si>
-    <t>Show D</t>
-  </si>
-  <si>
-    <t>Show E</t>
-  </si>
-  <si>
-    <t>Show F</t>
-  </si>
-  <si>
-    <t>Show G</t>
-  </si>
-  <si>
-    <t>Show H</t>
-  </si>
-  <si>
-    <t>Show I</t>
-  </si>
-  <si>
-    <t>Title A</t>
-  </si>
-  <si>
-    <t>Title B</t>
-  </si>
-  <si>
-    <t>Title C</t>
-  </si>
-  <si>
-    <t>Title D</t>
-  </si>
-  <si>
-    <t>Title E</t>
-  </si>
-  <si>
-    <t>Title F</t>
-  </si>
-  <si>
-    <t>Title G</t>
-  </si>
-  <si>
-    <t>Title H</t>
-  </si>
-  <si>
-    <t>Title I</t>
-  </si>
-  <si>
-    <t>waaaaaaaaaaawaaaaaaaaaah A</t>
-  </si>
-  <si>
-    <t>waaaaaaaaaaawaaaaaaaaaah B</t>
-  </si>
-  <si>
-    <t>waaaaaaaaaaawaaaaaaaaaah C</t>
-  </si>
-  <si>
-    <t>waaaaaaaaaaawaaaaaaaaaah D</t>
-  </si>
-  <si>
-    <t>waaaaaaaaaaawaaaaaaaaaah E</t>
-  </si>
-  <si>
-    <t>waaaaaaaaaaawaaaaaaaaaah  F</t>
-  </si>
-  <si>
-    <t>waaaaaaaaaaawaaaaaaaaaah G</t>
-  </si>
-  <si>
-    <t>waaaaaaaaaaawaaaaaaaaaah H</t>
-  </si>
-  <si>
-    <t>waaaaaaaaaaawaaaaaaaaaah I</t>
-  </si>
-  <si>
-    <t>ELECTRIC CAFÉ</t>
+    <t>Boioioing!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ale(OS) </t>
+  </si>
+  <si>
+    <t>Boioioing! is a live performance of playful, experimental dance music.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rodeo Haus </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cowfolk Cycling Club </t>
+  </si>
+  <si>
+    <t>Randomized Sound Pieces</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Girl Pope University </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Louis Felix </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A weekly exploration of various topics, themes taken from the news, advertisement, pop culture, student gossip, politics and many more areas not yet mentioned. This show will likely last roughly an hour per episode and the contents will vary from interviews to conversations, random field recordings, music, silence, etc. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">On this monthly radio show, you will hear Océane Buxton train herself at Girl Pope University by experimenting with playful, celestial and godly soundscapes. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Casual Fridays </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A laid-back show which consists of live, hardware experimentations/performances in electronic music, featuring guests. The audience listens and joins us as we create new sound pieces out of the blue, with no prepared material. The outcome of the sound piece may or may not be enjoyable, but it's more about the process of discovery and having fun. </t>
+  </si>
+  <si>
+    <t>Océane Buxton</t>
+  </si>
+  <si>
+    <t>Liam Kenna</t>
+  </si>
+  <si>
+    <t>SAGE aka victor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+M.A.S</t>
+  </si>
+  <si>
+    <t>~~@~~Welcome~to~the~land~of~Tumble~Weed~~@~~
+From the wild west, we come ridin' in on our valiant steeds! Hawyee! 
+Biking was a way for us to reclaim our agency by travelling distances, reconnecting with our bodies and offering us a space of meditative contemplation. It is a radical anti-capitalist form of self-care.
+We wish to map out, democratize and bring together the different local communities that encourage auto-didactic lifestyles in the hopes of introducing an alternative ecosystem inclusive to all. 
+We have noticed the lack of community within Concordia and student life. In discussing the absurdity of living in a late-stage capitalist heterocisnormative society facing environmental calamity, we want to start a conversation, encouraging people to start caring about each other and about themselves. 
+This is your invitation to our mental cycling workout! Yeehaw!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mildly amusing shit (M.A.S) serait une émission radio ou moi et divers collaborateurs parleraient de trucs sous le large thème de la culture. Sketch, critique, éditoriaux et chroniques seraient au menu. J’aimerais amener à l’université un regard qui ne se prend pas au sérieux quant à l’art et la culture,          </t>
+  </si>
+  <si>
+    <t>~~~</t>
+  </si>
+  <si>
+    <t>You Look Fine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">????? Surprise filler ????? </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ????? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Using the structure of a talk-show/podcast, we would like to welcome different artists from across campus to share their experiences of being a creator living with chronic illness and or invisible disability. We are interested in how their illness(es) has influenced their practice and how they face the struggles they experience due to their illness(es) in and out of their practice. One part of the show would be a segment speaking about the illness(es) of the guest artist in order to raise awareness and offer helpful resources for those who might also be struggling with the same illness(es). Another segment would include an artist spotlight, giving each artist the opportunity to share one of their own art pieces/performances/creations. The overall goal of the show would be to raise visibility for the chronically ill &amp; invisibly disabled community on campus and hopefully create a community of artists who can collaborate and support one another. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lunam Theatre Company </t>
+  </si>
+  <si>
+    <t>F*k*ng_De$troYed_4ever</t>
+  </si>
+  <si>
+    <t>Two extra-terrestrial humanoïd-cyborgs are listening to their local Top 40 Hits radio in their flying dark matter plasma bubble; this is what they hear.  Punching DVDs, dropping a VHS from the top of, drilling a hole in a USB key. Slowly inserting a needle in one's ear. Continuous sounds evolving for an hour. xD hihi you're not ready for this</t>
+  </si>
+  <si>
+    <t>Mc.pale</t>
+  </si>
+  <si>
+    <t>DIRTY STINKY SMELLY</t>
+  </si>
+  <si>
+    <t>Within a matter of seconds, my pitch shifted voice flangs into what feels like 'Search History' you thought you had cleared, we descend into the seductive, the surreal, the "DIRTY STINKY SMELLY". It is a variety show lathered with provocations – cleaning up all that nasty noise by dumping its proverbial garbage basket all over your desk and lighting it on fire. Think reality television play-by-plays shows, 5 gum, DIY night-core, sexy whistling, clock-ticking, clown costumes... It is a show that places horrible content right beneath our noses in the form of experimental sound, "trash" pop-culture indulgence and live prop-comedy performance.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marissa Sean Cruz </t>
+  </si>
+  <si>
+    <t>3motion</t>
+  </si>
+  <si>
+    <t>3motion are recordings of live electronic jams between the artists. Each recording is improvised from beginning to end, and evolves through an intuitive, playful approach to sound making. </t>
+  </si>
+  <si>
+    <t>Digital Hell: The Free Market</t>
+  </si>
+  <si>
+    <t>Remote Access</t>
+  </si>
+  <si>
+    <t>SPINCYCLES</t>
+  </si>
+  <si>
+    <t>Hakeem Lapointe</t>
+  </si>
+  <si>
+    <t>An interview-based radio show where the guests are invited to come wash their clothes at a laundromat of their choice. The format and length are based on the duration of the spin cycles of both washer and dryer, with a musical interlude in the middle during the transfer of clothes (music produced by the guest and with a non-commercial release form agreement). </t>
+  </si>
+  <si>
+    <t>Proposition76: postamateur</t>
+  </si>
+  <si>
+    <t>Proposition76: postamateur [replay]</t>
+  </si>
+  <si>
+    <t>EsoTalk</t>
+  </si>
+  <si>
+    <t>iced t</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EsoTalk is a monthly radio show circling around esoteric topics. Each show has a different guest come on to talk about something they know really really well to the point that its questionable if its even useful to know that much, i mean why? </t>
+  </si>
+  <si>
+    <t>Boioioing! is a live performance of playful, experimental dance music. </t>
+  </si>
+  <si>
+    <t>Boioioing! [replay]</t>
+  </si>
+  <si>
+    <t>Rodeo Haus [replay]</t>
+  </si>
+  <si>
+    <t>Casual Fridays [replay]</t>
+  </si>
+  <si>
+    <t>Digital Hell: The Free Market [replay]</t>
+  </si>
+  <si>
+    <t>M.A.S [replay]</t>
+  </si>
+  <si>
+    <t>F*k*ng_De$troYed_4ever [replay]</t>
+  </si>
+  <si>
+    <t>You Look Fine [replay]</t>
+  </si>
+  <si>
+    <t>Girl Pope University [replay]</t>
+  </si>
+  <si>
+    <t>EsoTalk [replay]</t>
+  </si>
+  <si>
+    <t>3motion [replay]</t>
+  </si>
+  <si>
+    <t>DIRTY STINKY SMELLY [replay]</t>
+  </si>
+  <si>
+    <t>SPINCYCLES [replay]</t>
+  </si>
+  <si>
+    <t>☆</t>
   </si>
 </sst>
 </file>
@@ -289,7 +271,7 @@
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -303,6 +285,47 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF202124"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF202124"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF202124"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF545454"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -325,11 +348,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="6" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -647,10 +681,10 @@
   <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="53.6640625" customWidth="1"/>
     <col min="3" max="3" width="26.6640625" customWidth="1"/>
@@ -665,10 +699,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -678,768 +712,778 @@
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>11</v>
+      <c r="B4" s="10" t="s">
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" t="s">
-        <v>28</v>
+        <v>23</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
-        <v>12</v>
+      <c r="B5" s="10" t="s">
+        <v>24</v>
       </c>
       <c r="C5" t="s">
         <v>37</v>
       </c>
-      <c r="D5" t="s">
-        <v>29</v>
+      <c r="D5" s="6" t="s">
+        <v>37</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>3</v>
       </c>
-      <c r="B6" t="s">
-        <v>13</v>
+      <c r="B6" s="10" t="s">
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>3</v>
       </c>
-      <c r="B7" t="s">
-        <v>14</v>
+      <c r="B7" s="11" t="s">
+        <v>34</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>3</v>
       </c>
-      <c r="B8" t="s">
-        <v>20</v>
+      <c r="B8" s="10" t="s">
+        <v>56</v>
       </c>
       <c r="C8" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>3</v>
       </c>
-      <c r="B9" t="s">
-        <v>21</v>
+      <c r="B9" s="10" t="s">
+        <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="D9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>3</v>
       </c>
-      <c r="B10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D10" t="s">
-        <v>44</v>
+      <c r="B10" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>74</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>45</v>
-      </c>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B11" s="10"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>28</v>
+      <c r="B14" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>29</v>
+      <c r="B15" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>37</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>30</v>
+      <c r="B16" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>31</v>
+      <c r="B17" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>32</v>
+      <c r="B18" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>50</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>21</v>
+      <c r="B19" s="10" t="s">
+        <v>51</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>33</v>
+        <v>52</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>37</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>44</v>
+      <c r="B20" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>74</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>45</v>
-      </c>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B21" s="10"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>5</v>
       </c>
-      <c r="B22" t="s">
-        <v>55</v>
-      </c>
-      <c r="C22" t="s">
-        <v>34</v>
+      <c r="B22" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="D22" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>5</v>
       </c>
-      <c r="B23" t="s">
-        <v>56</v>
-      </c>
-      <c r="C23" t="s">
-        <v>35</v>
-      </c>
-      <c r="D23" t="s">
-        <v>27</v>
+      <c r="B23" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>55</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>5</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="10" t="s">
         <v>57</v>
       </c>
       <c r="C24" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>5</v>
       </c>
-      <c r="B25" t="s">
-        <v>58</v>
+      <c r="B25" s="10" t="s">
+        <v>24</v>
       </c>
       <c r="C25" t="s">
         <v>37</v>
       </c>
-      <c r="D25" t="s">
-        <v>29</v>
+      <c r="D25" s="6" t="s">
+        <v>37</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>5</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" t="s">
         <v>59</v>
       </c>
-      <c r="C26" t="s">
-        <v>38</v>
-      </c>
-      <c r="D26" t="s">
-        <v>30</v>
+      <c r="D26" s="8" t="s">
+        <v>60</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>5</v>
       </c>
-      <c r="B27" t="s">
-        <v>60</v>
-      </c>
-      <c r="C27" t="s">
-        <v>39</v>
-      </c>
-      <c r="D27" t="s">
-        <v>31</v>
+      <c r="B27" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>61</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>5</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C28" t="s">
-        <v>40</v>
-      </c>
-      <c r="D28" t="s">
-        <v>32</v>
-      </c>
       <c r="E28" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>5</v>
       </c>
-      <c r="B29" t="s">
-        <v>62</v>
+      <c r="B29" s="10" t="s">
+        <v>63</v>
       </c>
       <c r="C29" t="s">
-        <v>41</v>
-      </c>
-      <c r="D29" t="s">
-        <v>33</v>
+        <v>23</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>5</v>
       </c>
-      <c r="B30" t="s">
-        <v>63</v>
-      </c>
-      <c r="C30" t="s">
-        <v>43</v>
-      </c>
-      <c r="D30" t="s">
-        <v>44</v>
+      <c r="B30" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>74</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>45</v>
-      </c>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B31" s="10"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>26</v>
+      <c r="C32" t="s">
+        <v>32</v>
+      </c>
+      <c r="D32" t="s">
+        <v>30</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="10" t="s">
         <v>65</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>27</v>
+        <v>52</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>37</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>28</v>
+      <c r="C34" t="s">
+        <v>33</v>
+      </c>
+      <c r="D34" t="s">
+        <v>36</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>29</v>
+      <c r="B35" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C35" t="s">
+        <v>37</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>37</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>30</v>
+      <c r="B36" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>69</v>
+      <c r="B37" s="10" t="s">
+        <v>39</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>31</v>
+        <v>40</v>
+      </c>
+      <c r="D37" t="s">
+        <v>39</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>32</v>
+      <c r="B38" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D38" t="s">
+        <v>41</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>33</v>
+      <c r="B39" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C39" t="s">
+        <v>31</v>
+      </c>
+      <c r="D39" t="s">
+        <v>28</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>44</v>
+      <c r="B40" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>74</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B41" s="10"/>
       <c r="E41" s="1"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C42" t="s">
+        <v>59</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E42" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D43" t="s">
+        <v>39</v>
+      </c>
+      <c r="E43" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>11</v>
+      <c r="B44" s="10" t="s">
+        <v>39</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>75</v>
+        <v>40</v>
+      </c>
+      <c r="D44" t="s">
+        <v>39</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>76</v>
+      <c r="B45" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C45" t="s">
+        <v>37</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>37</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C46" s="2" t="s">
+      <c r="B46" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D46" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="D46" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="E46" s="3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>78</v>
+      <c r="B47" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>79</v>
+      <c r="B48" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>80</v>
+      <c r="B49" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>55</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>81</v>
+      <c r="B50" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="D50" s="12" t="s">
+        <v>74</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
@@ -1447,5 +1491,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>